--- a/src/main/resources/Donnes.xlsx
+++ b/src/main/resources/Donnes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JGuiral\Documents\PROJET\GAMECASH\SELENIUM\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF360B8D-D60B-427A-BB33-B9B564ADD430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECEBF32-A600-427A-9916-90978C79A84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{02BA424B-3285-4C5E-ACAA-4E99BC427988}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{02BA424B-3285-4C5E-ACAA-4E99BC427988}"/>
   </bookViews>
   <sheets>
     <sheet name="Creation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>email</t>
   </si>
@@ -96,30 +96,6 @@
     <t>92600</t>
   </si>
   <si>
-    <t>Cacahuette9103</t>
-  </si>
-  <si>
-    <t>0699492620</t>
-  </si>
-  <si>
-    <t>09/09/1999</t>
-  </si>
-  <si>
-    <t>5 avenue Laurent Cely</t>
-  </si>
-  <si>
-    <t>tese2765678@yopmail.com</t>
-  </si>
-  <si>
-    <t>est122385676@yopmail.com</t>
-  </si>
-  <si>
-    <t>ax999965</t>
-  </si>
-  <si>
-    <t>ax999906</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -133,6 +109,12 @@
   </si>
   <si>
     <t>ps5</t>
+  </si>
+  <si>
+    <t>tese276678@yopmail.com</t>
+  </si>
+  <si>
+    <t>ax99e965</t>
   </si>
 </sst>
 </file>
@@ -559,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958CBEBB-D157-4DAF-B25B-70ACD21C2279}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +592,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -644,45 +626,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{4166B8ED-1A9D-4CB2-B684-AE9F5753D8BB}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{C6BE73E0-B241-4B40-B525-59403E251EC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -704,15 +663,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
@@ -730,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D94D9F-025D-414D-B0A5-A985DB6BDC5C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -741,12 +700,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
